--- a/categories/it1/other_topwords.xlsx
+++ b/categories/it1/other_topwords.xlsx
@@ -1,171 +1,326 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dns/Documents/python/graphgrail/comments_analyzer/categories/it1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>exclamation_point</t>
+  </si>
   <si>
     <t>cool</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>just</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>awsome</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>people</t>
   </si>
   <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>thing</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>addictive</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>amaze</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>pls</t>
+  </si>
+  <si>
+    <t>minecraft</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>ist</t>
+  </si>
+  <si>
+    <t>plz</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
     <t>gun</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>awsome</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>let</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>suck</t>
+  </si>
+  <si>
+    <t>im</t>
   </si>
   <si>
     <t>pixel</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>shooter</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
     <t>ve</t>
   </si>
   <si>
-    <t>minecraft</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>plz</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>addictive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>trop</t>
+  </si>
+  <si>
+    <t>guy</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>dont</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>guns</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>addicting</t>
+  </si>
+  <si>
+    <t>spiel</t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>addict</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>clan</t>
+  </si>
+  <si>
+    <t>killer</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,20 +379,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,12 +429,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -311,15 +461,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -346,7 +495,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,370 +670,816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A36" activeCellId="1" sqref="A17:XFD17 A36:XFD36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>143.64640883977901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>457.0543765370252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>142.55597557429479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>448.5836597139995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>124.8182611224193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156.389470807906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>102.8642047106717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150.8334092358138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>102.6461180575749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118.1346206394025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76.403024134922944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97.0033700701339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72.840942134341375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90.90081063849166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71.387031113695841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73.50396210948173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66.225646990404186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71.86446853083159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63.608607153242218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61.48100919938064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.799941843559168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59.38610073777211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.418726373945923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46.72556699152928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.475428903751087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40.71409053647873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.22186682175051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31.78795883049458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.842396045362019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31.05929501776118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.315789473684209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27.41597595409418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.062227391683631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25.8675653520357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.844140738586798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25.68539939885235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.244838615876709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24.31915474997723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.445187554521659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.95291010110211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.22710090142483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.7669186629019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.136667635940679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.49175699061845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.555103227682469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.03634210766008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.33701657458564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.21468257582658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.028496656004648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.6662719737681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16.865367839488218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.39111030148465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16.429194533294559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.1159486292012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16.065716778133179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.56945076965115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>15.9930212271009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.3872848164678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>15.84763012503635</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.0229529101011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>15.411456818842691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.0229529101011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>15.0479790636813</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.83887421440933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>15.0479790636813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.47454230804263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>14.17563245129398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.38345933145095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>14.1029369002617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.38345933145095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>14.03024134922943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.38345933145095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>13.52137249200349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.29237635485928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>13.375981389938939</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.11021040167593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>13.157894736842101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.928044448492576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12.867112532713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.654795518717552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12.72172143064844</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.381546588942527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>12.285548124454779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.290463612350852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12.14015702239023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.290463612350852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.99476592032568</v>
+        <v>8.743965752800802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>8.288550869842426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>8.288550869842426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>8.197467893250751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>8.197467893250751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>8.106384916659076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>8.106384916659076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>7.833135986884051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>7.833135986884051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>7.833135986884051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>7.833135986884051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>7.742053010292376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>7.468804080517351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7.468804080517351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>7.377721103925676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>7.195555150742326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>7.013389197558976</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>7.013389197558976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>7.013389197558976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>6.831223244375626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>6.831223244375626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>6.831223244375626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>6.740140267783951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>6.740140267783951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>6.740140267783951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>6.649057291192277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>6.557974314600601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>6.557974314600601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>6.284725384825576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>6.011476455050551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>6.011476455050551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>5.829310501867201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5.647144548683851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>5.556061572092176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.373895618908826</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5.373895618908826</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5.009563712542126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>4.827397759358776</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>4.827397759358776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>4.736314782767101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>4.736314782767101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>4.645231806175426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4.554148829583751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>4.554148829583751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>4.371982876400401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>4.371982876400401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>4.280899899808726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>4.280899899808726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>4.280899899808726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>4.189816923217051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>4.098733946625376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>4.0076509700337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>4.0076509700337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3.916567993442026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3.916567993442026</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3.916567993442026</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3.82548501685035</v>
       </c>
     </row>
   </sheetData>
